--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.736398666666666</v>
+        <v>9.036864</v>
       </c>
       <c r="H2">
-        <v>14.209196</v>
+        <v>27.110592</v>
       </c>
       <c r="I2">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="J2">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>14.47968699145467</v>
+        <v>16.445800208448</v>
       </c>
       <c r="R2">
-        <v>130.317182923092</v>
+        <v>148.012201876032</v>
       </c>
       <c r="S2">
-        <v>0.02048021745842031</v>
+        <v>0.01367434195564077</v>
       </c>
       <c r="T2">
-        <v>0.02048021745842031</v>
+        <v>0.01367434195564077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.736398666666666</v>
+        <v>9.036864</v>
       </c>
       <c r="H3">
-        <v>14.209196</v>
+        <v>27.110592</v>
       </c>
       <c r="I3">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="J3">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>421.6700164805866</v>
+        <v>804.5299519718399</v>
       </c>
       <c r="R3">
-        <v>3795.030148325279</v>
+        <v>7240.769567746559</v>
       </c>
       <c r="S3">
-        <v>0.5964143864653049</v>
+        <v>0.6689499773423548</v>
       </c>
       <c r="T3">
-        <v>0.5964143864653049</v>
+        <v>0.668949977342355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.736398666666666</v>
+        <v>9.036864</v>
       </c>
       <c r="H4">
-        <v>14.209196</v>
+        <v>27.110592</v>
       </c>
       <c r="I4">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="J4">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>100.2678894034035</v>
+        <v>284.9254569156479</v>
       </c>
       <c r="R4">
-        <v>902.4110046306319</v>
+        <v>2564.329112240831</v>
       </c>
       <c r="S4">
-        <v>0.141819928862443</v>
+        <v>0.236909610985688</v>
       </c>
       <c r="T4">
-        <v>0.141819928862443</v>
+        <v>0.236909610985688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.736398666666666</v>
+        <v>9.036864</v>
       </c>
       <c r="H5">
-        <v>14.209196</v>
+        <v>27.110592</v>
       </c>
       <c r="I5">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="J5">
-        <v>0.7599472210591204</v>
+        <v>0.9206342953678062</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.8715210366599998</v>
+        <v>1.323382462464</v>
       </c>
       <c r="R5">
-        <v>7.843689329939998</v>
+        <v>11.910442162176</v>
       </c>
       <c r="S5">
-        <v>0.001232688272952201</v>
+        <v>0.001100365084122498</v>
       </c>
       <c r="T5">
-        <v>0.001232688272952201</v>
+        <v>0.001100365084122498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.2434186666666667</v>
       </c>
       <c r="H6">
-        <v>0.7302560000000001</v>
+        <v>0.730256</v>
       </c>
       <c r="I6">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="J6">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>0.7441573966346667</v>
+        <v>0.442987164464</v>
       </c>
       <c r="R6">
-        <v>6.697416569712001</v>
+        <v>3.986884480176</v>
       </c>
       <c r="S6">
-        <v>0.001052543837126055</v>
+        <v>0.0003683346442290307</v>
       </c>
       <c r="T6">
-        <v>0.001052543837126055</v>
+        <v>0.0003683346442290309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.2434186666666667</v>
       </c>
       <c r="H7">
-        <v>0.7302560000000001</v>
+        <v>0.730256</v>
       </c>
       <c r="I7">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="J7">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>21.67096995178667</v>
@@ -883,10 +883,10 @@
         <v>195.03872956608</v>
       </c>
       <c r="S7">
-        <v>0.03065164166942365</v>
+        <v>0.018018962280651</v>
       </c>
       <c r="T7">
-        <v>0.03065164166942365</v>
+        <v>0.01801896228065101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.2434186666666667</v>
       </c>
       <c r="H8">
-        <v>0.7302560000000001</v>
+        <v>0.730256</v>
       </c>
       <c r="I8">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="J8">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>5.153087327683556</v>
+        <v>7.674805642952888</v>
       </c>
       <c r="R8">
-        <v>46.37778594915201</v>
+        <v>69.073250786576</v>
       </c>
       <c r="S8">
-        <v>0.007288579450334292</v>
+        <v>0.006381441795146508</v>
       </c>
       <c r="T8">
-        <v>0.007288579450334291</v>
+        <v>0.006381441795146509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>0.2434186666666667</v>
       </c>
       <c r="H9">
-        <v>0.7302560000000001</v>
+        <v>0.730256</v>
       </c>
       <c r="I9">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="J9">
-        <v>0.03905611674733385</v>
+        <v>0.02479837836068326</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>0.04479025176</v>
+        <v>0.03564687866311111</v>
       </c>
       <c r="R9">
-        <v>0.40311226584</v>
+        <v>0.320821907968</v>
       </c>
       <c r="S9">
-        <v>6.335179044985955E-05</v>
+        <v>2.963964065672039E-05</v>
       </c>
       <c r="T9">
-        <v>6.335179044985954E-05</v>
+        <v>2.96396406567204E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.174813</v>
+        <v>0.5126043333333333</v>
       </c>
       <c r="H10">
-        <v>3.524439</v>
+        <v>1.537813</v>
       </c>
       <c r="I10">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="J10">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>3.591531395617</v>
+        <v>0.932866584247</v>
       </c>
       <c r="R10">
-        <v>32.323782560553</v>
+        <v>8.395799258223001</v>
       </c>
       <c r="S10">
-        <v>0.005079898759855058</v>
+        <v>0.0007756592266900627</v>
       </c>
       <c r="T10">
-        <v>0.005079898759855057</v>
+        <v>0.0007756592266900629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.174813</v>
+        <v>0.5126043333333333</v>
       </c>
       <c r="H11">
-        <v>3.524439</v>
+        <v>1.537813</v>
       </c>
       <c r="I11">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="J11">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>104.59073484628</v>
+        <v>45.63591304209333</v>
       </c>
       <c r="R11">
-        <v>941.3166136165199</v>
+        <v>410.72321737884</v>
       </c>
       <c r="S11">
-        <v>0.1479342056946356</v>
+        <v>0.03794531567244193</v>
       </c>
       <c r="T11">
-        <v>0.1479342056946356</v>
+        <v>0.03794531567244194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.174813</v>
+        <v>0.5126043333333333</v>
       </c>
       <c r="H12">
-        <v>3.524439</v>
+        <v>1.537813</v>
       </c>
       <c r="I12">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="J12">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>24.87037689261534</v>
+        <v>16.16202522157478</v>
       </c>
       <c r="R12">
-        <v>223.833392033538</v>
+        <v>145.458226994173</v>
       </c>
       <c r="S12">
-        <v>0.03517691558762508</v>
+        <v>0.01343838893664638</v>
       </c>
       <c r="T12">
-        <v>0.03517691558762507</v>
+        <v>0.01343838893664638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.174813</v>
+        <v>0.5126043333333333</v>
       </c>
       <c r="H13">
-        <v>3.524439</v>
+        <v>1.537813</v>
       </c>
       <c r="I13">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="J13">
-        <v>0.1884967751759062</v>
+        <v>0.05222178061115199</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.216171466065</v>
+        <v>0.07506714551822222</v>
       </c>
       <c r="R13">
-        <v>1.945543194585</v>
+        <v>0.6756043096640001</v>
       </c>
       <c r="S13">
-        <v>0.0003057551337904961</v>
+        <v>6.241677537361303E-05</v>
       </c>
       <c r="T13">
-        <v>0.000305755133790496</v>
+        <v>6.241677537361305E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07790599999999999</v>
+        <v>0.02302366666666667</v>
       </c>
       <c r="H14">
-        <v>0.233718</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="I14">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358495</v>
       </c>
       <c r="J14">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358496</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>0.238167133754</v>
+        <v>0.041899780949</v>
       </c>
       <c r="R14">
-        <v>2.143504203786</v>
+        <v>0.3770980285410001</v>
       </c>
       <c r="S14">
-        <v>0.0003368660312622247</v>
+        <v>3.483879928620016E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003368660312622247</v>
+        <v>3.483879928620017E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07790599999999999</v>
+        <v>0.02302366666666667</v>
       </c>
       <c r="H15">
-        <v>0.233718</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="I15">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358495</v>
       </c>
       <c r="J15">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358496</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>6.935781089359999</v>
+        <v>2.049740865586667</v>
       </c>
       <c r="R15">
-        <v>62.42202980423999</v>
+        <v>18.44766779028</v>
       </c>
       <c r="S15">
-        <v>0.009810039750025134</v>
+        <v>0.001704317039075126</v>
       </c>
       <c r="T15">
-        <v>0.009810039750025134</v>
+        <v>0.001704317039075126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07790599999999999</v>
+        <v>0.02302366666666667</v>
       </c>
       <c r="H16">
-        <v>0.233718</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="I16">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358495</v>
       </c>
       <c r="J16">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358496</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>1.649242545150666</v>
+        <v>0.7259187196878889</v>
       </c>
       <c r="R16">
-        <v>14.843182906356</v>
+        <v>6.533268477191</v>
       </c>
       <c r="S16">
-        <v>0.002332705533365326</v>
+        <v>0.0006035863672911478</v>
       </c>
       <c r="T16">
-        <v>0.002332705533365326</v>
+        <v>0.000603586367291148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07790599999999999</v>
+        <v>0.02302366666666667</v>
       </c>
       <c r="H17">
-        <v>0.233718</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="I17">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358495</v>
       </c>
       <c r="J17">
-        <v>0.01249988701763953</v>
+        <v>0.002345545660358496</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>0.01433509353</v>
+        <v>0.003371647143111111</v>
       </c>
       <c r="R17">
-        <v>0.12901584177</v>
+        <v>0.030344824288</v>
       </c>
       <c r="S17">
-        <v>2.027570298684334E-05</v>
+        <v>2.80345470602136E-06</v>
       </c>
       <c r="T17">
-        <v>2.027570298684334E-05</v>
+        <v>2.803454706021361E-06</v>
       </c>
     </row>
   </sheetData>
